--- a/data/trans_dic/P2A_fisi_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01742487166543302</v>
+        <v>0.01799508034451833</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04193738058448797</v>
+        <v>0.04075006835875281</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05335867553672341</v>
+        <v>0.05188137928695509</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1000315209784288</v>
+        <v>0.1030790056857406</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03561891974742285</v>
+        <v>0.03478935388505761</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05869859508115786</v>
+        <v>0.06329433493407828</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05272838351660489</v>
+        <v>0.05408268099493685</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09268221510882313</v>
+        <v>0.09283131953786551</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02895992782707359</v>
+        <v>0.02998077819024551</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05507844948485241</v>
+        <v>0.05558438962091946</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05740232775733685</v>
+        <v>0.05588955053140635</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1019931914518426</v>
+        <v>0.1010738065911847</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04102808878078762</v>
+        <v>0.0423036569164986</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08215430827701178</v>
+        <v>0.07857439099739769</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09234076463127677</v>
+        <v>0.09059330847993204</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1478923713837848</v>
+        <v>0.1490487435125134</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06853876324732541</v>
+        <v>0.06807796732475226</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1020650469192839</v>
+        <v>0.1056806502634032</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09429605939136419</v>
+        <v>0.09354281829784969</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1300014522148915</v>
+        <v>0.1310463194801902</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04981600009135997</v>
+        <v>0.05059511347307806</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.08329695807461414</v>
+        <v>0.08257857807598711</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08664047740600801</v>
+        <v>0.08456976938905907</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1331484758474081</v>
+        <v>0.1333922335293546</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04080634838407466</v>
+        <v>0.04196472772996707</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06336589003645314</v>
+        <v>0.06463080279201915</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03829950025595113</v>
+        <v>0.03803426167927001</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09862246771005592</v>
+        <v>0.0986914790453409</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04313635091253841</v>
+        <v>0.04348942462248143</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08220952787356084</v>
+        <v>0.08203113551322644</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05690056252797967</v>
+        <v>0.05551330710424168</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1178745700287552</v>
+        <v>0.1169216440093279</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04615788077961484</v>
+        <v>0.04619090043561912</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07644211443937213</v>
+        <v>0.07880540773484947</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05101799780089807</v>
+        <v>0.04978790353608649</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1140275672238292</v>
+        <v>0.1132635200414486</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07199080304141878</v>
+        <v>0.07295855378435356</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1004806542136926</v>
+        <v>0.1008312808831754</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06723991912882379</v>
+        <v>0.06721560950481659</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1395741959902927</v>
+        <v>0.1430912736156564</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07510325277065467</v>
+        <v>0.07341497255805626</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1185251554576739</v>
+        <v>0.1193874214747862</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09036790075588398</v>
+        <v>0.09051256156594682</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1495857881223021</v>
+        <v>0.1516974085516873</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06812998489033044</v>
+        <v>0.06724465836639094</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1027610873346238</v>
+        <v>0.1048365271070806</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07382561445393941</v>
+        <v>0.07272732443720356</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1405118632693188</v>
+        <v>0.1401194431463962</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04120395048638376</v>
+        <v>0.04087809805105738</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05661174979042437</v>
+        <v>0.05606010332598997</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02012831848853604</v>
+        <v>0.01937637704158159</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09705311372089757</v>
+        <v>0.09884209360648848</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.043124251931701</v>
+        <v>0.04156774697201143</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06347299532738347</v>
+        <v>0.06426808910714436</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03702604963831591</v>
+        <v>0.03672965383263749</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1049491543128335</v>
+        <v>0.1041223632177979</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04698008617599886</v>
+        <v>0.04597909989785801</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06588071654991609</v>
+        <v>0.0660042913611234</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03249347655201803</v>
+        <v>0.03209418345220296</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1046419961420072</v>
+        <v>0.106016390459002</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08027315882199057</v>
+        <v>0.07870154146566768</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09763222365984964</v>
+        <v>0.0967167190624184</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04689067062400402</v>
+        <v>0.04736042355162633</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1455951582963877</v>
+        <v>0.1477346766730775</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07827665446937569</v>
+        <v>0.07987743371759366</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1080173957515342</v>
+        <v>0.1071934252871508</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07096276040551733</v>
+        <v>0.06939697267066698</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1426262414261637</v>
+        <v>0.1453867316120395</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07266085521489984</v>
+        <v>0.07244576261606835</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09640213858758304</v>
+        <v>0.09562969175154507</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05344006102017757</v>
+        <v>0.05367153027606884</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1366783061502156</v>
+        <v>0.1369723454472627</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04147770358902809</v>
+        <v>0.04188616310026282</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05720861714608159</v>
+        <v>0.05977872071093512</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05412484138443498</v>
+        <v>0.05426391228613529</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06277448385588232</v>
+        <v>0.06144227932283974</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06202704021064662</v>
+        <v>0.06199469036579469</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07852412866956252</v>
+        <v>0.07789082964222475</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06118271252465673</v>
+        <v>0.06271042509015312</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07944418221653197</v>
+        <v>0.07878624828228856</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05645047879368319</v>
+        <v>0.05535247693893628</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07371405127252366</v>
+        <v>0.07379175685483381</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06312543561231143</v>
+        <v>0.06239369064145235</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07580101112146483</v>
+        <v>0.07531680044959034</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07184704755927197</v>
+        <v>0.07025054184489818</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09571582330719759</v>
+        <v>0.0972718852105388</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08776192939218019</v>
+        <v>0.08788278972190675</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09651112327273123</v>
+        <v>0.09584383835768967</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09603527408139281</v>
+        <v>0.0956079581514727</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1139948972548637</v>
+        <v>0.1170804143529984</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09755682140965917</v>
+        <v>0.09834010181045662</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1079122835133098</v>
+        <v>0.1096102520688738</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07863023529317827</v>
+        <v>0.07869757656168973</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1003556247800886</v>
+        <v>0.1006125588476336</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08780938142046397</v>
+        <v>0.08730833886291343</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09857076302012445</v>
+        <v>0.09738940886691341</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04285200873922652</v>
+        <v>0.04277616800071952</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0642951189885948</v>
+        <v>0.06438953553770181</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04838153796789946</v>
+        <v>0.04767982581940018</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09716305788333555</v>
+        <v>0.09870439189899308</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05464096204607682</v>
+        <v>0.05474596447383961</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08199023821857671</v>
+        <v>0.08119282508642628</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06027443957268275</v>
+        <v>0.06011752654520586</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1062603195657008</v>
+        <v>0.1062736264969031</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05095976112769389</v>
+        <v>0.05138876134609212</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07590467218028921</v>
+        <v>0.07535034231610496</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05634277062347628</v>
+        <v>0.05582634633503576</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1051969513523481</v>
+        <v>0.1044743221783358</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05749074562967509</v>
+        <v>0.05843018412780338</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08293609902617817</v>
+        <v>0.082932106996797</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06483610987414637</v>
+        <v>0.0637013106270657</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1188913068127</v>
+        <v>0.1196506665590197</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07129388954889423</v>
+        <v>0.07143190253277287</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1015201075544141</v>
+        <v>0.100827331118257</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07901834150987914</v>
+        <v>0.07857669178624521</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1235802588909297</v>
+        <v>0.1238485385859447</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06222152767841781</v>
+        <v>0.06224914621784765</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08938330677493805</v>
+        <v>0.08950562897190951</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06817032633125863</v>
+        <v>0.06836301283125795</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1184713604200549</v>
+        <v>0.1182552928918669</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12093</v>
+        <v>12489</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>29502</v>
+        <v>28666</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>36006</v>
+        <v>35010</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>69093</v>
+        <v>71198</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>24518</v>
+        <v>23947</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>40916</v>
+        <v>44119</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>35478</v>
+        <v>36389</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>68045</v>
+        <v>68155</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>40033</v>
+        <v>41444</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>77138</v>
+        <v>77847</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>77358</v>
+        <v>75319</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>145329</v>
+        <v>144019</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28474</v>
+        <v>29359</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>57793</v>
+        <v>55275</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>62312</v>
+        <v>61132</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>102151</v>
+        <v>102949</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>47179</v>
+        <v>46862</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>71144</v>
+        <v>73665</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>63446</v>
+        <v>62939</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>95444</v>
+        <v>96212</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>68864</v>
+        <v>69941</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>116659</v>
+        <v>115653</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>116760</v>
+        <v>113970</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>189722</v>
+        <v>190069</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>39248</v>
+        <v>40362</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>64503</v>
+        <v>65791</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>39159</v>
+        <v>38887</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>103447</v>
+        <v>103519</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>41773</v>
+        <v>42115</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>84855</v>
+        <v>84671</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>59342</v>
+        <v>57896</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>126300</v>
+        <v>125279</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>89094</v>
+        <v>89157</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>156716</v>
+        <v>161561</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>105370</v>
+        <v>102829</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>241783</v>
+        <v>240163</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>69241</v>
+        <v>70172</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>102284</v>
+        <v>102641</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>68748</v>
+        <v>68723</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>146402</v>
+        <v>150091</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>72729</v>
+        <v>71095</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>122340</v>
+        <v>123230</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>94246</v>
+        <v>94397</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>160277</v>
+        <v>162540</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>131504</v>
+        <v>129795</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>210674</v>
+        <v>214929</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>152475</v>
+        <v>150207</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>297940</v>
+        <v>297108</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>27957</v>
+        <v>27736</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>42890</v>
+        <v>42472</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15289</v>
+        <v>14717</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>77941</v>
+        <v>79377</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>29490</v>
+        <v>28426</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>49330</v>
+        <v>49947</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>29066</v>
+        <v>28833</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>85246</v>
+        <v>84574</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>64003</v>
+        <v>62640</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>101114</v>
+        <v>101303</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>50188</v>
+        <v>49571</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>169032</v>
+        <v>171252</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>54466</v>
+        <v>53400</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>73968</v>
+        <v>73275</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>35616</v>
+        <v>35973</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>116924</v>
+        <v>118642</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>53529</v>
+        <v>54623</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>83948</v>
+        <v>83308</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>55707</v>
+        <v>54477</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>115849</v>
+        <v>118092</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>98990</v>
+        <v>98696</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>147958</v>
+        <v>146772</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>82542</v>
+        <v>82899</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>220781</v>
+        <v>221256</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>39081</v>
+        <v>39466</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>54219</v>
+        <v>56655</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>50746</v>
+        <v>50876</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>62151</v>
+        <v>60832</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>64422</v>
+        <v>64388</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>82600</v>
+        <v>81933</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>63861</v>
+        <v>65456</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>88901</v>
+        <v>88165</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>111819</v>
+        <v>109644</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>147402</v>
+        <v>147557</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>125073</v>
+        <v>123623</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>159872</v>
+        <v>158851</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>67696</v>
+        <v>66192</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>90714</v>
+        <v>92188</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>82283</v>
+        <v>82396</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>95552</v>
+        <v>94891</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>99743</v>
+        <v>99300</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>119911</v>
+        <v>123157</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>101828</v>
+        <v>102645</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>120758</v>
+        <v>122658</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>155753</v>
+        <v>155887</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>200675</v>
+        <v>201189</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>173981</v>
+        <v>172988</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>207896</v>
+        <v>205404</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>140406</v>
+        <v>140158</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>220325</v>
+        <v>220649</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>164224</v>
+        <v>161842</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>343254</v>
+        <v>348699</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>184643</v>
+        <v>184997</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>291747</v>
+        <v>288909</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>213645</v>
+        <v>213089</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>397090</v>
+        <v>397140</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>339175</v>
+        <v>342030</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>530201</v>
+        <v>526329</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>390956</v>
+        <v>387373</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>764752</v>
+        <v>759499</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>188371</v>
+        <v>191449</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>284204</v>
+        <v>284190</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>220076</v>
+        <v>216225</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>420015</v>
+        <v>422697</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>240916</v>
+        <v>241382</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>361240</v>
+        <v>358775</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>280084</v>
+        <v>278518</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>461814</v>
+        <v>462816</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>414130</v>
+        <v>414314</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>624350</v>
+        <v>625205</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>473027</v>
+        <v>474364</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>861253</v>
+        <v>859682</v>
       </c>
     </row>
     <row r="24">
